--- a/data/trans_camb/P27A_10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_10-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,6 +656,21 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -667,6 +713,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -705,6 +766,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,12 +848,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -777,12 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -853,12 +974,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 3,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,12; 590,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 335,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 292,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 250,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 9,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 1,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-26,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-28,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,51; 198,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,69; 109,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,16; 42,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 38,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 54,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,05; 25,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 2,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 7,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 11,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 9,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 4,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-30,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-19,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 8,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 34,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 91,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 65,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 10,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 21,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 17,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 21,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 0,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 26,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 5,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 22,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 76,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 95,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 82,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 16,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 65,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 8,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 23,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 23,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 7,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 86,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 40,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
